--- a/Code/Results/Cases/Case_11_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_11_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.639297129245051</v>
+        <v>3.46677384630982</v>
       </c>
       <c r="C2">
-        <v>0.9954155328274226</v>
+        <v>1.019169272890139</v>
       </c>
       <c r="D2">
-        <v>0.03898913623710598</v>
+        <v>0.04824190763466873</v>
       </c>
       <c r="E2">
-        <v>1.441922359378012</v>
+        <v>1.35169962688731</v>
       </c>
       <c r="F2">
-        <v>0.4605004832323445</v>
+        <v>0.5084535737087279</v>
       </c>
       <c r="G2">
-        <v>0.0007686809952637855</v>
+        <v>0.0007896385517037115</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01092094002687105</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003536527785124033</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208600237614888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.435151477765999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.163926660293328</v>
+        <v>3.02011174815118</v>
       </c>
       <c r="C3">
-        <v>0.8738301893891673</v>
+        <v>0.8990605546520669</v>
       </c>
       <c r="D3">
-        <v>0.03462429524203259</v>
+        <v>0.0433835340809452</v>
       </c>
       <c r="E3">
-        <v>1.235854890260782</v>
+        <v>1.176740016824183</v>
       </c>
       <c r="F3">
-        <v>0.4140919297068777</v>
+        <v>0.468187038062311</v>
       </c>
       <c r="G3">
-        <v>0.0007740569087419503</v>
+        <v>0.000793366441376707</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00766975902495437</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001965288275290966</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104349497267975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.348594257482659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873012578389137</v>
+        <v>2.745669458445775</v>
       </c>
       <c r="C4">
-        <v>0.7993378641016591</v>
+        <v>0.8258832939075091</v>
       </c>
       <c r="D4">
-        <v>0.03195374705860843</v>
+        <v>0.04041041276209967</v>
       </c>
       <c r="E4">
-        <v>1.112018506115731</v>
+        <v>1.069666178277558</v>
       </c>
       <c r="F4">
-        <v>0.3874158420567042</v>
+        <v>0.4441198563540496</v>
       </c>
       <c r="G4">
-        <v>0.0007774440430916593</v>
+        <v>0.0007957272508090085</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005904022270549425</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001270814676121557</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.046477410931772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.297464469391542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754637414378635</v>
+        <v>2.633730900298815</v>
       </c>
       <c r="C5">
-        <v>0.7690066449735298</v>
+        <v>0.7977722387358028</v>
       </c>
       <c r="D5">
-        <v>0.03086722398415276</v>
+        <v>0.03928077046956702</v>
       </c>
       <c r="E5">
-        <v>1.062125557461115</v>
+        <v>1.02608314129057</v>
       </c>
       <c r="F5">
-        <v>0.3769626004365563</v>
+        <v>0.4336700664951891</v>
       </c>
       <c r="G5">
-        <v>0.0007788469445427952</v>
+        <v>0.0007967124296093884</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00523637476029204</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001110499418202515</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.024306193568947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.274436995028537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734989976010297</v>
+        <v>2.615103766652396</v>
       </c>
       <c r="C6">
-        <v>0.7639712490239674</v>
+        <v>0.7950489896263662</v>
       </c>
       <c r="D6">
-        <v>0.03068689589320428</v>
+        <v>0.03919122151063448</v>
       </c>
       <c r="E6">
-        <v>1.053872496020546</v>
+        <v>1.018830727099584</v>
       </c>
       <c r="F6">
-        <v>0.3752509494558538</v>
+        <v>0.4309748955527013</v>
       </c>
       <c r="G6">
-        <v>0.000779081286801657</v>
+        <v>0.0007968828780179578</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005126972417599962</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001168165231651308</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.020706307984653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.267397047251904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871415508127143</v>
+        <v>2.74406360535454</v>
       </c>
       <c r="C7">
-        <v>0.7989287250678387</v>
+        <v>0.8308092758339853</v>
       </c>
       <c r="D7">
-        <v>0.03193908754566621</v>
+        <v>0.04066341026042863</v>
       </c>
       <c r="E7">
-        <v>1.111343450545846</v>
+        <v>1.069026406947373</v>
       </c>
       <c r="F7">
-        <v>0.3872732262943899</v>
+        <v>0.4413300423773592</v>
       </c>
       <c r="G7">
-        <v>0.0007774628703471185</v>
+        <v>0.0007957557770997617</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005890106154369357</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001472853056091239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.046172851185844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.28828808501018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475146169237348</v>
+        <v>3.312653545137607</v>
       </c>
       <c r="C8">
-        <v>0.9534495003956067</v>
+        <v>0.9847298999007421</v>
       </c>
       <c r="D8">
-        <v>0.03748176335487585</v>
+        <v>0.04692401796475565</v>
       </c>
       <c r="E8">
-        <v>1.370245579812007</v>
+        <v>1.291216389130142</v>
       </c>
       <c r="F8">
-        <v>0.4440963412042933</v>
+        <v>0.4909136236972671</v>
       </c>
       <c r="G8">
-        <v>0.0007705172717353615</v>
+        <v>0.0007909279253908628</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009741767389663553</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003174773938467546</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171298389780702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.393125671300481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.670153159864412</v>
+        <v>4.427610317638539</v>
       </c>
       <c r="C9">
-        <v>1.25854120576895</v>
+        <v>1.282110248089054</v>
       </c>
       <c r="D9">
-        <v>0.04845951825805628</v>
+        <v>0.0588090931990024</v>
       </c>
       <c r="E9">
-        <v>1.904628270821107</v>
+        <v>1.730915313986756</v>
       </c>
       <c r="F9">
-        <v>0.5719243957679723</v>
+        <v>0.5988199823157387</v>
       </c>
       <c r="G9">
-        <v>0.0007575363395391445</v>
+        <v>0.0007819898167375172</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01935802986678037</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008607690668569923</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.471852032810375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.632718893241275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.560268806890804</v>
+        <v>5.24749449069725</v>
       </c>
       <c r="C10">
-        <v>1.485214488906252</v>
+        <v>1.50644471872306</v>
       </c>
       <c r="D10">
-        <v>0.05664530721055883</v>
+        <v>0.06925275944912102</v>
       </c>
       <c r="E10">
-        <v>2.322005527160329</v>
+        <v>1.955498156088424</v>
       </c>
       <c r="F10">
-        <v>0.6788586430795363</v>
+        <v>0.6683724546327312</v>
       </c>
       <c r="G10">
-        <v>0.0007483187425436127</v>
+        <v>0.0007759177289413412</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02725836382229918</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0143664161419883</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.736287612921188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.775547518866148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.969211083351865</v>
+        <v>5.612142301903873</v>
       </c>
       <c r="C11">
-        <v>1.589203920418356</v>
+        <v>1.610434802784823</v>
       </c>
       <c r="D11">
-        <v>0.06040982474324608</v>
+        <v>0.08861588644301577</v>
       </c>
       <c r="E11">
-        <v>2.519515414215107</v>
+        <v>1.267337406619561</v>
       </c>
       <c r="F11">
-        <v>0.7310970168233126</v>
+        <v>0.5871507068896307</v>
       </c>
       <c r="G11">
-        <v>0.0007441769524084341</v>
+        <v>0.0007746196692268896</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04270868006982909</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01643561128637661</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.868589470172623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.474547141099578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.124773827319245</v>
+        <v>5.74725555498668</v>
       </c>
       <c r="C12">
-        <v>1.628738126228427</v>
+        <v>1.642389293035194</v>
       </c>
       <c r="D12">
-        <v>0.06184261659738866</v>
+        <v>0.1037805964393641</v>
       </c>
       <c r="E12">
-        <v>2.59562948098278</v>
+        <v>0.7713189373199754</v>
       </c>
       <c r="F12">
-        <v>0.7514676455013642</v>
+        <v>0.5121260620343264</v>
       </c>
       <c r="G12">
-        <v>0.0007426142563734144</v>
+        <v>0.0007745905169331831</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07854308646568597</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01664005842228544</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920657000486727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.224683832186997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.091237065252074</v>
+        <v>5.71206086016997</v>
       </c>
       <c r="C13">
-        <v>1.62021628777336</v>
+        <v>1.628934670659646</v>
       </c>
       <c r="D13">
-        <v>0.0615336923972265</v>
+        <v>0.1168170525753141</v>
       </c>
       <c r="E13">
-        <v>2.579174270918756</v>
+        <v>0.3948377359290731</v>
       </c>
       <c r="F13">
-        <v>0.7470530197557252</v>
+        <v>0.4334589186537912</v>
       </c>
       <c r="G13">
-        <v>0.0007429505859019447</v>
+        <v>0.0007755528712741501</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1314041879758321</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01567717074598907</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909351657525605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9858811040282944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.981994411985397</v>
+        <v>5.610402796626545</v>
       </c>
       <c r="C14">
-        <v>1.59245311887048</v>
+        <v>1.600782500645209</v>
       </c>
       <c r="D14">
-        <v>0.06052754737639532</v>
+        <v>0.1251548963565625</v>
       </c>
       <c r="E14">
-        <v>2.525749484437696</v>
+        <v>0.2040035724406977</v>
       </c>
       <c r="F14">
-        <v>0.7327606687664314</v>
+        <v>0.3772055239524477</v>
       </c>
       <c r="G14">
-        <v>0.0007440482843727255</v>
+        <v>0.0007766576504858142</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1788295655706946</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01459786682350295</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.872832176201655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8260307867355579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915175981730897</v>
+        <v>5.549222564864976</v>
       </c>
       <c r="C15">
-        <v>1.575468599796352</v>
+        <v>1.586479300100507</v>
       </c>
       <c r="D15">
-        <v>0.05991224352278834</v>
+        <v>0.1266680095887693</v>
       </c>
       <c r="E15">
-        <v>2.493204529720103</v>
+        <v>0.1664673984577796</v>
       </c>
       <c r="F15">
-        <v>0.7240852042093451</v>
+        <v>0.361549071281118</v>
       </c>
       <c r="G15">
-        <v>0.000744721346776587</v>
+        <v>0.0007771664842525621</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1906857109769646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01418120435697556</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.850726843422734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7848470606577962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.53363491942747</v>
+        <v>5.202401853822494</v>
       </c>
       <c r="C16">
-        <v>1.478438606471798</v>
+        <v>1.495615476278033</v>
       </c>
       <c r="D16">
-        <v>0.05640022152631019</v>
+        <v>0.1191748546277722</v>
       </c>
       <c r="E16">
-        <v>2.309269822762175</v>
+        <v>0.1619581450697751</v>
       </c>
       <c r="F16">
-        <v>0.6755230432628423</v>
+        <v>0.3473887037929586</v>
       </c>
       <c r="G16">
-        <v>0.0007485903130532989</v>
+        <v>0.0007795445118418047</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.175491235802042</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01192358401845794</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.727902952230721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7706965671103063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.300687919728546</v>
+        <v>4.991035451832488</v>
       </c>
       <c r="C17">
-        <v>1.419157990854444</v>
+        <v>1.441267988981963</v>
       </c>
       <c r="D17">
-        <v>0.05425707574409699</v>
+        <v>0.1089952125854552</v>
       </c>
       <c r="E17">
-        <v>2.198537140315693</v>
+        <v>0.2459753982704243</v>
       </c>
       <c r="F17">
-        <v>0.6467009445061791</v>
+        <v>0.365796307107324</v>
       </c>
       <c r="G17">
-        <v>0.0007509758215070161</v>
+        <v>0.000780802229109395</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1367689001963726</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01081278822335374</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655792619796131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8422055574621652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167073336104238</v>
+        <v>4.871728470037112</v>
       </c>
       <c r="C18">
-        <v>1.385141676507658</v>
+        <v>1.407347280808153</v>
       </c>
       <c r="D18">
-        <v>0.05302813720694388</v>
+        <v>0.09563455489917061</v>
       </c>
       <c r="E18">
-        <v>2.135550865997416</v>
+        <v>0.4790218023010837</v>
       </c>
       <c r="F18">
-        <v>0.6304566638523852</v>
+        <v>0.4181691898324047</v>
       </c>
       <c r="G18">
-        <v>0.0007523528468301177</v>
+        <v>0.0007811315644281613</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08461431799794639</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01026415122278657</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.615430967274676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.011170216096644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.121893730647344</v>
+        <v>4.83500880465499</v>
       </c>
       <c r="C19">
-        <v>1.373637281602043</v>
+        <v>1.40339474351282</v>
       </c>
       <c r="D19">
-        <v>0.05261264338035687</v>
+        <v>0.08223365033970964</v>
       </c>
       <c r="E19">
-        <v>2.114339516159717</v>
+        <v>0.9131096264680565</v>
       </c>
       <c r="F19">
-        <v>0.625011828509713</v>
+        <v>0.4940337535870114</v>
       </c>
       <c r="G19">
-        <v>0.0007528199807482719</v>
+        <v>0.0007805737522911431</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0420758044946794</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01072812603060136</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.601949714868709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.251779364725252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325446324771633</v>
+        <v>5.031627643970751</v>
       </c>
       <c r="C20">
-        <v>1.425459995105768</v>
+        <v>1.464437765624723</v>
       </c>
       <c r="D20">
-        <v>0.05448482054296733</v>
+        <v>0.06744620694644254</v>
       </c>
       <c r="E20">
-        <v>2.210250434711142</v>
+        <v>1.891890550245648</v>
       </c>
       <c r="F20">
-        <v>0.6497341005681392</v>
+        <v>0.6409981226065185</v>
       </c>
       <c r="G20">
-        <v>0.0007507213798648098</v>
+        <v>0.0007775358304290444</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02500230937025849</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01333659226125761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663351909176043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.707873429777266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.014061404798156</v>
+        <v>5.663603663768583</v>
       </c>
       <c r="C21">
-        <v>1.600603352844928</v>
+        <v>1.636139845533137</v>
       </c>
       <c r="D21">
-        <v>0.06082286766925193</v>
+        <v>0.07300782904698622</v>
       </c>
       <c r="E21">
-        <v>2.541403832657366</v>
+        <v>2.224275313971731</v>
       </c>
       <c r="F21">
-        <v>0.7369420707503735</v>
+        <v>0.7181090159483858</v>
       </c>
       <c r="G21">
-        <v>0.0007437257231604488</v>
+        <v>0.0007726865873697398</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03281830044685519</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01854060229383236</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.883503363258569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.895197017569245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.468291637405798</v>
+        <v>6.077296100170315</v>
       </c>
       <c r="C22">
-        <v>1.715993697539091</v>
+        <v>1.741715857843474</v>
       </c>
       <c r="D22">
-        <v>0.06500821190251571</v>
+        <v>0.07705961331203781</v>
       </c>
       <c r="E22">
-        <v>2.76566328394901</v>
+        <v>2.390794747381719</v>
       </c>
       <c r="F22">
-        <v>0.7974113547351038</v>
+        <v>0.7665380570823004</v>
       </c>
       <c r="G22">
-        <v>0.0007391860033399157</v>
+        <v>0.000769642109448282</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03795447932891705</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02207615676014552</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.038988414660309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.010982655735347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225432000269564</v>
+        <v>5.856533976777541</v>
       </c>
       <c r="C23">
-        <v>1.654312258275127</v>
+        <v>1.678693843975964</v>
       </c>
       <c r="D23">
-        <v>0.06276995956053355</v>
+        <v>0.0745603636229859</v>
       </c>
       <c r="E23">
-        <v>2.645172295040652</v>
+        <v>2.301860511110718</v>
       </c>
       <c r="F23">
-        <v>0.7647936384224749</v>
+        <v>0.7437029678328884</v>
       </c>
       <c r="G23">
-        <v>0.0007416065873020089</v>
+        <v>0.0007712498272074986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03518443906473134</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01990882957891671</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.954853820018542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.959238721746175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314252094415224</v>
+        <v>5.022345505370311</v>
       </c>
       <c r="C24">
-        <v>1.422610659040799</v>
+        <v>1.452387582760707</v>
       </c>
       <c r="D24">
-        <v>0.0543818473026505</v>
+        <v>0.0656626206233426</v>
       </c>
       <c r="E24">
-        <v>2.204952766859662</v>
+        <v>1.967538615152051</v>
       </c>
       <c r="F24">
-        <v>0.6483618008775949</v>
+        <v>0.6548386594035378</v>
       </c>
       <c r="G24">
-        <v>0.0007508363954645825</v>
+        <v>0.0007774558731151467</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02548343545092102</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01297716825878936</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659930959915187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.754635322995938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.34516289540062</v>
+        <v>4.125615602166818</v>
       </c>
       <c r="C25">
-        <v>1.175662098009525</v>
+        <v>1.210872665251486</v>
       </c>
       <c r="D25">
-        <v>0.04547296341502971</v>
+        <v>0.05608168448596018</v>
       </c>
       <c r="E25">
-        <v>1.75639716116838</v>
+        <v>1.611287029704712</v>
       </c>
       <c r="F25">
-        <v>0.5352944310287526</v>
+        <v>0.5640920550256467</v>
       </c>
       <c r="G25">
-        <v>0.0007609863970889205</v>
+        <v>0.0007843738772956623</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01649207729639268</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007186637996994705</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.383668787425194</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.549647283128024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_11_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_11_1/res_line/pl_mw.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.46677384630982</v>
+        <v>2.597803197262351</v>
       </c>
       <c r="C2">
-        <v>1.019169272890139</v>
+        <v>0.7119485641435404</v>
       </c>
       <c r="D2">
-        <v>0.04824190763466873</v>
+        <v>0.03291285572721492</v>
       </c>
       <c r="E2">
-        <v>1.35169962688731</v>
+        <v>1.361407321067915</v>
       </c>
       <c r="F2">
-        <v>0.5084535737087279</v>
+        <v>0.6798212621317248</v>
       </c>
       <c r="G2">
-        <v>0.0007896385517037115</v>
+        <v>0.0007871586232472039</v>
       </c>
       <c r="H2">
-        <v>0.01092094002687105</v>
+        <v>0.01199277220940109</v>
       </c>
       <c r="I2">
-        <v>0.003536527785124033</v>
+        <v>0.005767783202876409</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.7161795053628026</v>
       </c>
       <c r="Q2">
-        <v>1.435151477765999</v>
+        <v>2.014744168414211</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.02011174815118</v>
+        <v>2.26066291172782</v>
       </c>
       <c r="C3">
-        <v>0.8990605546520669</v>
+        <v>0.6281112901472454</v>
       </c>
       <c r="D3">
-        <v>0.0433835340809452</v>
+        <v>0.02978638338481687</v>
       </c>
       <c r="E3">
-        <v>1.176740016824183</v>
+        <v>1.18640414660436</v>
       </c>
       <c r="F3">
-        <v>0.468187038062311</v>
+        <v>0.6162561042387509</v>
       </c>
       <c r="G3">
-        <v>0.000793366441376707</v>
+        <v>0.0007907025278933496</v>
       </c>
       <c r="H3">
-        <v>0.00766975902495437</v>
+        <v>0.008635475661823488</v>
       </c>
       <c r="I3">
-        <v>0.001965288275290966</v>
+        <v>0.003802278604460696</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7252262043596858</v>
       </c>
       <c r="Q3">
-        <v>1.348594257482659</v>
+        <v>1.84802363948063</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.745669458445775</v>
+        <v>2.053033621404154</v>
       </c>
       <c r="C4">
-        <v>0.8258832939075091</v>
+        <v>0.5769465878343851</v>
       </c>
       <c r="D4">
-        <v>0.04041041276209967</v>
+        <v>0.02786294938359291</v>
       </c>
       <c r="E4">
-        <v>1.069666178277558</v>
+        <v>1.079243740448391</v>
       </c>
       <c r="F4">
-        <v>0.4441198563540496</v>
+        <v>0.5777840511071304</v>
       </c>
       <c r="G4">
-        <v>0.0007957272508090085</v>
+        <v>0.0007929509702298748</v>
       </c>
       <c r="H4">
-        <v>0.005904022270549425</v>
+        <v>0.006788786149038328</v>
       </c>
       <c r="I4">
-        <v>0.001270814676121557</v>
+        <v>0.002808140480463628</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.7314904468061201</v>
       </c>
       <c r="Q4">
-        <v>1.297464469391542</v>
+        <v>1.747272484144673</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.633730900298815</v>
+        <v>1.966867226263588</v>
       </c>
       <c r="C5">
-        <v>0.7977722387358028</v>
+        <v>0.5570060540242423</v>
       </c>
       <c r="D5">
-        <v>0.03928077046956702</v>
+        <v>0.02711732349066409</v>
       </c>
       <c r="E5">
-        <v>1.02608314129057</v>
+        <v>1.03560817179681</v>
       </c>
       <c r="F5">
-        <v>0.4336700664951891</v>
+        <v>0.561636489855097</v>
       </c>
       <c r="G5">
-        <v>0.0007967124296093884</v>
+        <v>0.0007938913891312019</v>
       </c>
       <c r="H5">
-        <v>0.00523637476029204</v>
+        <v>0.006084113324819063</v>
       </c>
       <c r="I5">
-        <v>0.001110499418202515</v>
+        <v>0.002507873075721534</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.734578658242711</v>
       </c>
       <c r="Q5">
-        <v>1.274436995028537</v>
+        <v>1.704511633347835</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,28 +639,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.615103766652396</v>
+        <v>1.950852273096388</v>
       </c>
       <c r="C6">
-        <v>0.7950489896263662</v>
+        <v>0.5547293813975784</v>
       </c>
       <c r="D6">
-        <v>0.03919122151063448</v>
+        <v>0.02704163866897247</v>
       </c>
       <c r="E6">
-        <v>1.018830727099584</v>
+        <v>1.028341575679136</v>
       </c>
       <c r="F6">
-        <v>0.4309748955527013</v>
+        <v>0.5582333237960952</v>
       </c>
       <c r="G6">
-        <v>0.0007968828780179578</v>
+        <v>0.0007940555458227334</v>
       </c>
       <c r="H6">
-        <v>0.005126972417599962</v>
+        <v>0.005967871774951172</v>
       </c>
       <c r="I6">
-        <v>0.001168165231651308</v>
+        <v>0.00253600607557658</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.7355487681603776</v>
       </c>
       <c r="Q6">
-        <v>1.267397047251904</v>
+        <v>1.694901505474832</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74406360535454</v>
+        <v>2.047220876175572</v>
       </c>
       <c r="C7">
-        <v>0.8308092758339853</v>
+        <v>0.579499765070608</v>
       </c>
       <c r="D7">
-        <v>0.04066341026042863</v>
+        <v>0.02798496047145704</v>
       </c>
       <c r="E7">
-        <v>1.069026406947373</v>
+        <v>1.078590135761104</v>
       </c>
       <c r="F7">
-        <v>0.4413300423773592</v>
+        <v>0.5755708414071776</v>
       </c>
       <c r="G7">
-        <v>0.0007957557770997617</v>
+        <v>0.0007929820356354663</v>
       </c>
       <c r="H7">
-        <v>0.005890106154369357</v>
+        <v>0.006772998661915941</v>
       </c>
       <c r="I7">
-        <v>0.001472853056091239</v>
+        <v>0.002993613051261335</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.7327682632237398</v>
       </c>
       <c r="Q7">
-        <v>1.28828808501018</v>
+        <v>1.739771223154349</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.312653545137607</v>
+        <v>2.475449915545028</v>
       </c>
       <c r="C8">
-        <v>0.9847298999007421</v>
+        <v>0.6867448461070467</v>
       </c>
       <c r="D8">
-        <v>0.04692401796475565</v>
+        <v>0.03201250899027031</v>
       </c>
       <c r="E8">
-        <v>1.291216389130142</v>
+        <v>1.300903148091805</v>
       </c>
       <c r="F8">
-        <v>0.4909136236972671</v>
+        <v>0.655126001160383</v>
       </c>
       <c r="G8">
-        <v>0.0007909279253908628</v>
+        <v>0.0007883887738010078</v>
       </c>
       <c r="H8">
-        <v>0.009741767389663553</v>
+        <v>0.01077826887721478</v>
       </c>
       <c r="I8">
-        <v>0.003174773938467546</v>
+        <v>0.00526474178485703</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.7208571998837741</v>
       </c>
       <c r="Q8">
-        <v>1.393125671300481</v>
+        <v>1.947695453102057</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.427610317638539</v>
+        <v>3.31937571960276</v>
       </c>
       <c r="C9">
-        <v>1.282110248089054</v>
+        <v>0.89486404983694</v>
       </c>
       <c r="D9">
-        <v>0.0588090931990024</v>
+        <v>0.03964780683899249</v>
       </c>
       <c r="E9">
-        <v>1.730915313986756</v>
+        <v>1.74031629218878</v>
       </c>
       <c r="F9">
-        <v>0.5988199823157387</v>
+        <v>0.819821406831295</v>
       </c>
       <c r="G9">
-        <v>0.0007819898167375172</v>
+        <v>0.0007799115522071909</v>
       </c>
       <c r="H9">
-        <v>0.01935802986678037</v>
+        <v>0.02055750911132859</v>
       </c>
       <c r="I9">
-        <v>0.008607690668569923</v>
+        <v>0.01132324856504763</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.7010876780096567</v>
       </c>
       <c r="Q9">
-        <v>1.632718893241275</v>
+        <v>2.382696616817753</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.24749449069725</v>
+        <v>3.917712953324951</v>
       </c>
       <c r="C10">
-        <v>1.50644471872306</v>
+        <v>1.045199349042434</v>
       </c>
       <c r="D10">
-        <v>0.06925275944912102</v>
+        <v>0.04618919566138402</v>
       </c>
       <c r="E10">
-        <v>1.955498156088424</v>
+        <v>1.963957886527425</v>
       </c>
       <c r="F10">
-        <v>0.6683724546327312</v>
+        <v>0.93232782730243</v>
       </c>
       <c r="G10">
-        <v>0.0007759177289413412</v>
+        <v>0.0007741951350906243</v>
       </c>
       <c r="H10">
-        <v>0.02725836382229918</v>
+        <v>0.02843873462482227</v>
       </c>
       <c r="I10">
-        <v>0.0143664161419883</v>
+        <v>0.01710822360147279</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.696941688860889</v>
       </c>
       <c r="Q10">
-        <v>1.775547518866148</v>
+        <v>2.671041276445521</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.612142301903873</v>
+        <v>4.026737869601959</v>
       </c>
       <c r="C11">
-        <v>1.610434802784823</v>
+        <v>1.062850731216088</v>
       </c>
       <c r="D11">
-        <v>0.08861588644301577</v>
+        <v>0.05755877076850879</v>
       </c>
       <c r="E11">
-        <v>1.267337406619561</v>
+        <v>1.273281716279527</v>
       </c>
       <c r="F11">
-        <v>0.5871507068896307</v>
+        <v>0.8817242950077855</v>
       </c>
       <c r="G11">
-        <v>0.0007746196692268896</v>
+        <v>0.0007731507858902821</v>
       </c>
       <c r="H11">
-        <v>0.04270868006982909</v>
+        <v>0.04364912973931112</v>
       </c>
       <c r="I11">
-        <v>0.01643561128637661</v>
+        <v>0.01881957031504289</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.7518756670614692</v>
       </c>
       <c r="Q11">
-        <v>1.474547141099578</v>
+        <v>2.455349917182559</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.74725555498668</v>
+        <v>3.998808706553689</v>
       </c>
       <c r="C12">
-        <v>1.642389293035194</v>
+        <v>1.04164719867569</v>
       </c>
       <c r="D12">
-        <v>0.1037805964393641</v>
+        <v>0.06634448787927028</v>
       </c>
       <c r="E12">
-        <v>0.7713189373199754</v>
+        <v>0.7757246460136571</v>
       </c>
       <c r="F12">
-        <v>0.5121260620343264</v>
+        <v>0.8193973257164942</v>
       </c>
       <c r="G12">
-        <v>0.0007745905169331831</v>
+        <v>0.0007732720225684575</v>
       </c>
       <c r="H12">
-        <v>0.07854308646568597</v>
+        <v>0.07933126607416341</v>
       </c>
       <c r="I12">
-        <v>0.01664005842228544</v>
+        <v>0.01876606120865443</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.8018015336147926</v>
       </c>
       <c r="Q12">
-        <v>1.224683832186997</v>
+        <v>2.230018738977265</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.71206086016997</v>
+        <v>3.856906087453297</v>
       </c>
       <c r="C13">
-        <v>1.628934670659646</v>
+        <v>0.9941221507705222</v>
       </c>
       <c r="D13">
-        <v>0.1168170525753141</v>
+        <v>0.07374033173330474</v>
       </c>
       <c r="E13">
-        <v>0.3948377359290731</v>
+        <v>0.3981850151505242</v>
       </c>
       <c r="F13">
-        <v>0.4334589186537912</v>
+        <v>0.7415224755416716</v>
       </c>
       <c r="G13">
-        <v>0.0007755528712741501</v>
+        <v>0.0007743164300377484</v>
       </c>
       <c r="H13">
-        <v>0.1314041879758321</v>
+        <v>0.1320877733521399</v>
       </c>
       <c r="I13">
-        <v>0.01567717074598907</v>
+        <v>0.01762405812788259</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.8516298066913066</v>
       </c>
       <c r="Q13">
-        <v>0.9858811040282944</v>
+        <v>1.974162583525896</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.610402796626545</v>
+        <v>3.705445098923747</v>
       </c>
       <c r="C14">
-        <v>1.600782500645209</v>
+        <v>0.9502030679651909</v>
       </c>
       <c r="D14">
-        <v>0.1251548963565625</v>
+        <v>0.07837039433519521</v>
       </c>
       <c r="E14">
-        <v>0.2040035724406977</v>
+        <v>0.2067866589870491</v>
       </c>
       <c r="F14">
-        <v>0.3772055239524477</v>
+        <v>0.6801878403898911</v>
       </c>
       <c r="G14">
-        <v>0.0007766576504858142</v>
+        <v>0.0007754502749329242</v>
       </c>
       <c r="H14">
-        <v>0.1788295655706946</v>
+        <v>0.1794594729324785</v>
       </c>
       <c r="I14">
-        <v>0.01459786682350295</v>
+        <v>0.01645342251417592</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.8871022934417567</v>
       </c>
       <c r="Q14">
-        <v>0.8260307867355579</v>
+        <v>1.782298678331358</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.549222564864976</v>
+        <v>3.642840219142954</v>
       </c>
       <c r="C15">
-        <v>1.586479300100507</v>
+        <v>0.9350401674155364</v>
       </c>
       <c r="D15">
-        <v>0.1266680095887693</v>
+        <v>0.07915881600541752</v>
       </c>
       <c r="E15">
-        <v>0.1664673984577796</v>
+        <v>0.1691515420980636</v>
       </c>
       <c r="F15">
-        <v>0.361549071281118</v>
+        <v>0.6612674466339854</v>
       </c>
       <c r="G15">
-        <v>0.0007771664842525621</v>
+        <v>0.0007759511119717162</v>
       </c>
       <c r="H15">
-        <v>0.1906857109769646</v>
+        <v>0.1913068405711869</v>
       </c>
       <c r="I15">
-        <v>0.01418120435697556</v>
+        <v>0.01602642478418481</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.8957326648395139</v>
       </c>
       <c r="Q15">
-        <v>0.7848470606577962</v>
+        <v>1.726423683432074</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.202401853822494</v>
+        <v>3.415509897697746</v>
       </c>
       <c r="C16">
-        <v>1.495615476278033</v>
+        <v>0.8831420113135096</v>
       </c>
       <c r="D16">
-        <v>0.1191748546277722</v>
+        <v>0.0746227652443352</v>
       </c>
       <c r="E16">
-        <v>0.1619581450697751</v>
+        <v>0.1649757372158618</v>
       </c>
       <c r="F16">
-        <v>0.3473887037929586</v>
+        <v>0.6290727610731253</v>
       </c>
       <c r="G16">
-        <v>0.0007795445118418047</v>
+        <v>0.000778154564283884</v>
       </c>
       <c r="H16">
-        <v>0.175491235802042</v>
+        <v>0.1761469891596477</v>
       </c>
       <c r="I16">
-        <v>0.01192358401845794</v>
+        <v>0.01389576357840028</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.8846610237793584</v>
       </c>
       <c r="Q16">
-        <v>0.7706965671103063</v>
+        <v>1.655776269964292</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,28 +1222,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.991035451832488</v>
+        <v>3.321024665012828</v>
       </c>
       <c r="C17">
-        <v>1.441267988981963</v>
+        <v>0.8665758524583111</v>
       </c>
       <c r="D17">
-        <v>0.1089952125854552</v>
+        <v>0.068686150943293</v>
       </c>
       <c r="E17">
-        <v>0.2459753982704243</v>
+        <v>0.2495924249046269</v>
       </c>
       <c r="F17">
-        <v>0.365796307107324</v>
+        <v>0.6365869619460085</v>
       </c>
       <c r="G17">
-        <v>0.000780802229109395</v>
+        <v>0.0007792633737742622</v>
       </c>
       <c r="H17">
-        <v>0.1367689001963726</v>
+        <v>0.1374730480102357</v>
       </c>
       <c r="I17">
-        <v>0.01081278822335374</v>
+        <v>0.01290158642736738</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.8577170160333907</v>
       </c>
       <c r="Q17">
-        <v>0.8422055574621652</v>
+        <v>1.70188707370113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.871728470037112</v>
+        <v>3.333655881952268</v>
       </c>
       <c r="C18">
-        <v>1.407347280808153</v>
+        <v>0.8764144046545539</v>
       </c>
       <c r="D18">
-        <v>0.09563455489917061</v>
+        <v>0.06103533650605186</v>
       </c>
       <c r="E18">
-        <v>0.4790218023010837</v>
+        <v>0.4836990774361354</v>
       </c>
       <c r="F18">
-        <v>0.4181691898324047</v>
+        <v>0.6812400819957105</v>
       </c>
       <c r="G18">
-        <v>0.0007811315644281613</v>
+        <v>0.000779451795486122</v>
       </c>
       <c r="H18">
-        <v>0.08461431799794639</v>
+        <v>0.08540656275748404</v>
       </c>
       <c r="I18">
-        <v>0.01026415122278657</v>
+        <v>0.0125143417278295</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.8143454827812491</v>
       </c>
       <c r="Q18">
-        <v>1.011170216096644</v>
+        <v>1.86245199742703</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,28 +1328,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.83500880465499</v>
+        <v>3.423425903977261</v>
       </c>
       <c r="C19">
-        <v>1.40339474351282</v>
+        <v>0.9129069093284556</v>
       </c>
       <c r="D19">
-        <v>0.08223365033970964</v>
+        <v>0.05334773736532838</v>
       </c>
       <c r="E19">
-        <v>0.9131096264680565</v>
+        <v>0.9192880719533036</v>
       </c>
       <c r="F19">
-        <v>0.4940337535870114</v>
+        <v>0.7509527051255276</v>
       </c>
       <c r="G19">
-        <v>0.0007805737522911431</v>
+        <v>0.0007787894674839167</v>
       </c>
       <c r="H19">
-        <v>0.0420758044946794</v>
+        <v>0.04300193645821793</v>
       </c>
       <c r="I19">
-        <v>0.01072812603060136</v>
+        <v>0.01316157143171637</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.7672507512976097</v>
       </c>
       <c r="Q19">
-        <v>1.251779364725252</v>
+        <v>2.100504158686675</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,28 +1381,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.031627643970751</v>
+        <v>3.744961384763428</v>
       </c>
       <c r="C20">
-        <v>1.464437765624723</v>
+        <v>1.014395815254744</v>
       </c>
       <c r="D20">
-        <v>0.06744620694644254</v>
+        <v>0.04493882850729136</v>
       </c>
       <c r="E20">
-        <v>1.891890550245648</v>
+        <v>1.900556197826361</v>
       </c>
       <c r="F20">
-        <v>0.6409981226065185</v>
+        <v>0.8957133485068596</v>
       </c>
       <c r="G20">
-        <v>0.0007775358304290444</v>
+        <v>0.0007757310825716802</v>
       </c>
       <c r="H20">
-        <v>0.02500230937025849</v>
+        <v>0.02618642432198026</v>
       </c>
       <c r="I20">
-        <v>0.01333659226125761</v>
+        <v>0.01606431092290084</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.7024029010301973</v>
       </c>
       <c r="Q20">
-        <v>1.707873429777266</v>
+        <v>2.571054206805428</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.663603663768583</v>
+        <v>4.234385973037206</v>
       </c>
       <c r="C21">
-        <v>1.636139845533137</v>
+        <v>1.13884384872128</v>
       </c>
       <c r="D21">
-        <v>0.07300782904698622</v>
+        <v>0.04853039978854667</v>
       </c>
       <c r="E21">
-        <v>2.224275313971731</v>
+        <v>2.232452845818756</v>
       </c>
       <c r="F21">
-        <v>0.7181090159483858</v>
+        <v>1.002870546799215</v>
       </c>
       <c r="G21">
-        <v>0.0007726865873697398</v>
+        <v>0.0007711437311507585</v>
       </c>
       <c r="H21">
-        <v>0.03281830044685519</v>
+        <v>0.03398707486947439</v>
       </c>
       <c r="I21">
-        <v>0.01854060229383236</v>
+        <v>0.02118666147670556</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.691096490122753</v>
       </c>
       <c r="Q21">
-        <v>1.895197017569245</v>
+        <v>2.862923816794051</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.077296100170315</v>
+        <v>4.551661220263384</v>
       </c>
       <c r="C22">
-        <v>1.741715857843474</v>
+        <v>1.213745153735829</v>
       </c>
       <c r="D22">
-        <v>0.07705961331203781</v>
+        <v>0.05114237283794409</v>
       </c>
       <c r="E22">
-        <v>2.390794747381719</v>
+        <v>2.398415709812426</v>
       </c>
       <c r="F22">
-        <v>0.7665380570823004</v>
+        <v>1.070752524721385</v>
       </c>
       <c r="G22">
-        <v>0.000769642109448282</v>
+        <v>0.000768271936691179</v>
       </c>
       <c r="H22">
-        <v>0.03795447932891705</v>
+        <v>0.03907437156944749</v>
       </c>
       <c r="I22">
-        <v>0.02207615676014552</v>
+        <v>0.02456729336757402</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6855652115969377</v>
       </c>
       <c r="Q22">
-        <v>2.010982655735347</v>
+        <v>3.045853247365073</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.856533976777541</v>
+        <v>4.388043389984887</v>
       </c>
       <c r="C23">
-        <v>1.678693843975964</v>
+        <v>1.170230267484214</v>
       </c>
       <c r="D23">
-        <v>0.0745603636229859</v>
+        <v>0.04958402825251795</v>
       </c>
       <c r="E23">
-        <v>2.301860511110718</v>
+        <v>2.309816508383619</v>
       </c>
       <c r="F23">
-        <v>0.7437029678328884</v>
+        <v>1.03681460987049</v>
       </c>
       <c r="G23">
-        <v>0.0007712498272074986</v>
+        <v>0.0007697827481974752</v>
       </c>
       <c r="H23">
-        <v>0.03518443906473134</v>
+        <v>0.03633694744138571</v>
       </c>
       <c r="I23">
-        <v>0.01990882957891671</v>
+        <v>0.02250664103468569</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6867202211229895</v>
       </c>
       <c r="Q23">
-        <v>1.959238721746175</v>
+        <v>2.95620379021554</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.022345505370311</v>
+        <v>3.759689213248521</v>
       </c>
       <c r="C24">
-        <v>1.452387582760707</v>
+        <v>1.012181686639536</v>
       </c>
       <c r="D24">
-        <v>0.0656626206233426</v>
+        <v>0.04394261903344443</v>
       </c>
       <c r="E24">
-        <v>1.967538615152051</v>
+        <v>1.976461631646146</v>
       </c>
       <c r="F24">
-        <v>0.6548386594035378</v>
+        <v>0.9067763043870798</v>
       </c>
       <c r="G24">
-        <v>0.0007774558731151467</v>
+        <v>0.0007756338485891714</v>
       </c>
       <c r="H24">
-        <v>0.02548343545092102</v>
+        <v>0.02669420700939273</v>
       </c>
       <c r="I24">
-        <v>0.01297716825878936</v>
+        <v>0.01574906392351672</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.6955573263841259</v>
       </c>
       <c r="Q24">
-        <v>1.754635322995938</v>
+        <v>2.610298883614547</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,28 +1646,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.125615602166818</v>
+        <v>3.082796153344248</v>
       </c>
       <c r="C25">
-        <v>1.210872665251486</v>
+        <v>0.8434117984034515</v>
       </c>
       <c r="D25">
-        <v>0.05608168448596018</v>
+        <v>0.03782965901152835</v>
       </c>
       <c r="E25">
-        <v>1.611287029704712</v>
+        <v>1.620805740526038</v>
       </c>
       <c r="F25">
-        <v>0.5640920550256467</v>
+        <v>0.7709755821200588</v>
       </c>
       <c r="G25">
-        <v>0.0007843738772956623</v>
+        <v>0.000782176244044853</v>
       </c>
       <c r="H25">
-        <v>0.01649207729639268</v>
+        <v>0.01766107065060085</v>
       </c>
       <c r="I25">
-        <v>0.007186637996994705</v>
+        <v>0.009773803154761396</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.7082226143536374</v>
       </c>
       <c r="Q25">
-        <v>1.549647283128024</v>
+        <v>2.250509085723536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_11_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_11_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.597803197262351</v>
+        <v>0.9185740531943054</v>
       </c>
       <c r="C2">
-        <v>0.7119485641435404</v>
+        <v>0.1445645020349176</v>
       </c>
       <c r="D2">
-        <v>0.03291285572721492</v>
+        <v>0.09938564407649153</v>
       </c>
       <c r="E2">
-        <v>1.361407321067915</v>
+        <v>0.05758469268443989</v>
       </c>
       <c r="F2">
-        <v>0.6798212621317248</v>
+        <v>0.6692962824054121</v>
       </c>
       <c r="G2">
-        <v>0.0007871586232472039</v>
+        <v>0.410799477355603</v>
       </c>
       <c r="H2">
-        <v>0.01199277220940109</v>
+        <v>0.01272443017381492</v>
       </c>
       <c r="I2">
-        <v>0.005767783202876409</v>
+        <v>0.01298415402234454</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3958997687436678</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4301455773997596</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04503296155213121</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07113365818113859</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8446407692511286</v>
       </c>
       <c r="P2">
-        <v>0.7161795053628026</v>
+        <v>0.1524404431653252</v>
       </c>
       <c r="Q2">
-        <v>2.014744168414211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.196940162036551</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.635658348422766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.26066291172782</v>
+        <v>0.8004375458701247</v>
       </c>
       <c r="C3">
-        <v>0.6281112901472454</v>
+        <v>0.1378321806289762</v>
       </c>
       <c r="D3">
-        <v>0.02978638338481687</v>
+        <v>0.09028924998094823</v>
       </c>
       <c r="E3">
-        <v>1.18640414660436</v>
+        <v>0.05546476320229843</v>
       </c>
       <c r="F3">
-        <v>0.6162561042387509</v>
+        <v>0.662168521811985</v>
       </c>
       <c r="G3">
-        <v>0.0007907025278933496</v>
+        <v>0.4112141831256437</v>
       </c>
       <c r="H3">
-        <v>0.008635475661823488</v>
+        <v>0.01523889583671939</v>
       </c>
       <c r="I3">
-        <v>0.003802278604460696</v>
+        <v>0.01536574226045939</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3962503429292497</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4357099111702638</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05004583722241929</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.06982177286155977</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7406340688345807</v>
       </c>
       <c r="P3">
-        <v>0.7252262043596858</v>
+        <v>0.1377910965969278</v>
       </c>
       <c r="Q3">
-        <v>1.84802363948063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.172286533112235</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.639452777742832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.053033621404154</v>
+        <v>0.7276255453584213</v>
       </c>
       <c r="C4">
-        <v>0.5769465878343851</v>
+        <v>0.133733111284549</v>
       </c>
       <c r="D4">
-        <v>0.02786294938359291</v>
+        <v>0.08473768738481624</v>
       </c>
       <c r="E4">
-        <v>1.079243740448391</v>
+        <v>0.0541512981937462</v>
       </c>
       <c r="F4">
-        <v>0.5777840511071304</v>
+        <v>0.6582181279454247</v>
       </c>
       <c r="G4">
-        <v>0.0007929509702298748</v>
+        <v>0.4119035533117099</v>
       </c>
       <c r="H4">
-        <v>0.006788786149038328</v>
+        <v>0.01696028021783247</v>
       </c>
       <c r="I4">
-        <v>0.002808140480463628</v>
+        <v>0.01703071328421268</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3965737407822445</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4393547497634138</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05415014422699826</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0689800895720647</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6767317301887772</v>
       </c>
       <c r="P4">
-        <v>0.7314904468061201</v>
+        <v>0.1288562734260594</v>
       </c>
       <c r="Q4">
-        <v>1.747272484144673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1571391489538776</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.642958941208718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.966867226263588</v>
+        <v>0.697567761409033</v>
       </c>
       <c r="C5">
-        <v>0.5570060540242423</v>
+        <v>0.1322516107219371</v>
       </c>
       <c r="D5">
-        <v>0.02711732349066409</v>
+        <v>0.08251034975759808</v>
       </c>
       <c r="E5">
-        <v>1.03560817179681</v>
+        <v>0.05358876402592827</v>
       </c>
       <c r="F5">
-        <v>0.561636489855097</v>
+        <v>0.6562564514128653</v>
       </c>
       <c r="G5">
-        <v>0.0007938913891312019</v>
+        <v>0.4119188747984595</v>
       </c>
       <c r="H5">
-        <v>0.006084113324819063</v>
+        <v>0.01770993668211535</v>
       </c>
       <c r="I5">
-        <v>0.002507873075721534</v>
+        <v>0.01786356997690408</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3965247088067301</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4405644997935152</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05608233423681774</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06860321607904307</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6509939678942942</v>
       </c>
       <c r="P5">
-        <v>0.734578658242711</v>
+        <v>0.1253656157226501</v>
       </c>
       <c r="Q5">
-        <v>1.704511633347835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1509831256497982</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.643459167862389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.950852273096388</v>
+        <v>0.6921861259594095</v>
       </c>
       <c r="C6">
-        <v>0.5547293813975784</v>
+        <v>0.1322296005040684</v>
       </c>
       <c r="D6">
-        <v>0.02704163866897247</v>
+        <v>0.08217395087288537</v>
       </c>
       <c r="E6">
-        <v>1.028341575679136</v>
+        <v>0.05346552113234715</v>
       </c>
       <c r="F6">
-        <v>0.5582333237960952</v>
+        <v>0.6553789071185463</v>
       </c>
       <c r="G6">
-        <v>0.0007940555458227334</v>
+        <v>0.4114735839439447</v>
       </c>
       <c r="H6">
-        <v>0.005967871774951172</v>
+        <v>0.01784291283200012</v>
       </c>
       <c r="I6">
-        <v>0.00253600607557658</v>
+        <v>0.01814162497223215</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3962643103364911</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.440363501345665</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05641890121778736</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06851004041265529</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6471078018992955</v>
       </c>
       <c r="P6">
-        <v>0.7355487681603776</v>
+        <v>0.1249539109140159</v>
       </c>
       <c r="Q6">
-        <v>1.694901505474832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1499850371008122</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.642071928308624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.047220876175572</v>
+        <v>0.7262343496495305</v>
       </c>
       <c r="C7">
-        <v>0.579499765070608</v>
+        <v>0.1342387978327579</v>
       </c>
       <c r="D7">
-        <v>0.02798496047145704</v>
+        <v>0.08494002723357852</v>
       </c>
       <c r="E7">
-        <v>1.078590135761104</v>
+        <v>0.05407242523779843</v>
       </c>
       <c r="F7">
-        <v>0.5755708414071776</v>
+        <v>0.6558696486842734</v>
       </c>
       <c r="G7">
-        <v>0.0007929820356354663</v>
+        <v>0.4126341032382257</v>
       </c>
       <c r="H7">
-        <v>0.006772998661915941</v>
+        <v>0.0169938414640603</v>
       </c>
       <c r="I7">
-        <v>0.002993613051261335</v>
+        <v>0.01740554509443637</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3926632122531188</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4378388747113497</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05417514901378517</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.06887267748250459</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6773120955484444</v>
       </c>
       <c r="P7">
-        <v>0.7327682632237398</v>
+        <v>0.1292748112460416</v>
       </c>
       <c r="Q7">
-        <v>1.739771223154349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1571404188325687</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.636634360313963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.475449915545028</v>
+        <v>0.8767217610223383</v>
       </c>
       <c r="C8">
-        <v>0.6867448461070467</v>
+        <v>0.1427760717046453</v>
       </c>
       <c r="D8">
-        <v>0.03201250899027031</v>
+        <v>0.09683850057751897</v>
       </c>
       <c r="E8">
-        <v>1.300903148091805</v>
+        <v>0.05678384493115374</v>
       </c>
       <c r="F8">
-        <v>0.655126001160383</v>
+        <v>0.6621062129226374</v>
       </c>
       <c r="G8">
-        <v>0.0007883887738010078</v>
+        <v>0.4158709962893283</v>
       </c>
       <c r="H8">
-        <v>0.01077826887721478</v>
+        <v>0.01359332623438397</v>
       </c>
       <c r="I8">
-        <v>0.00526474178485703</v>
+        <v>0.01421740092266788</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3846252212712287</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4291717140604767</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04654930388579004</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07051815134597827</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8097524919174646</v>
       </c>
       <c r="P8">
-        <v>0.7208571998837741</v>
+        <v>0.1480139538558589</v>
       </c>
       <c r="Q8">
-        <v>1.947695453102057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1885877943923049</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.623895496161978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.31937571960276</v>
+        <v>1.171382435948914</v>
       </c>
       <c r="C9">
-        <v>0.89486404983694</v>
+        <v>0.1590465682243973</v>
       </c>
       <c r="D9">
-        <v>0.03964780683899249</v>
+        <v>0.1197785785932837</v>
       </c>
       <c r="E9">
-        <v>1.74031629218878</v>
+        <v>0.06211864663836941</v>
       </c>
       <c r="F9">
-        <v>0.819821406831295</v>
+        <v>0.6834314586256198</v>
       </c>
       <c r="G9">
-        <v>0.0007799115522071909</v>
+        <v>0.4207714739930779</v>
       </c>
       <c r="H9">
-        <v>0.02055750911132859</v>
+        <v>0.008342078697552616</v>
       </c>
       <c r="I9">
-        <v>0.01132324856504763</v>
+        <v>0.009055584395522231</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3822387375128642</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4175225516029606</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03967238090657915</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07367935996663366</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.067888721793679</v>
       </c>
       <c r="P9">
-        <v>0.7010876780096567</v>
+        <v>0.1844314863714871</v>
       </c>
       <c r="Q9">
-        <v>2.382696616817753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2500301998807508</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.623981401201334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.917712953324951</v>
+        <v>1.385916896707784</v>
       </c>
       <c r="C10">
-        <v>1.045199349042434</v>
+        <v>0.172325777397873</v>
       </c>
       <c r="D10">
-        <v>0.04618919566138402</v>
+        <v>0.1358729343751293</v>
       </c>
       <c r="E10">
-        <v>1.963957886527425</v>
+        <v>0.06434022759416891</v>
       </c>
       <c r="F10">
-        <v>0.93232782730243</v>
+        <v>0.6883953063858854</v>
       </c>
       <c r="G10">
-        <v>0.0007741951350906243</v>
+        <v>0.433081889898645</v>
       </c>
       <c r="H10">
-        <v>0.02843873462482227</v>
+        <v>0.005825386474468175</v>
       </c>
       <c r="I10">
-        <v>0.01710822360147279</v>
+        <v>0.006616387089654729</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3611387192625415</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4035436267810653</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03945751483081583</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07494481209932813</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.260613155269994</v>
       </c>
       <c r="P10">
-        <v>0.696941688860889</v>
+        <v>0.205161986832735</v>
       </c>
       <c r="Q10">
-        <v>2.671041276445521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2919832551896988</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.599132275611581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.026737869601959</v>
+        <v>1.476059432140516</v>
       </c>
       <c r="C11">
-        <v>1.062850731216088</v>
+        <v>0.1902796002722624</v>
       </c>
       <c r="D11">
-        <v>0.05755877076850879</v>
+        <v>0.1287364272283611</v>
       </c>
       <c r="E11">
-        <v>1.273281716279527</v>
+        <v>0.05276340223282538</v>
       </c>
       <c r="F11">
-        <v>0.8817242950077855</v>
+        <v>0.6173878712629843</v>
       </c>
       <c r="G11">
-        <v>0.0007731507858902821</v>
+        <v>0.4123721841198389</v>
       </c>
       <c r="H11">
-        <v>0.04364912973931112</v>
+        <v>0.02441384055764217</v>
       </c>
       <c r="I11">
-        <v>0.01881957031504289</v>
+        <v>0.00668064475241259</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.309927070097153</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3622951107634798</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0403922029264443</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.07364302891167718</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.377024164932436</v>
       </c>
       <c r="P11">
-        <v>0.7518756670614692</v>
+        <v>0.1611338071589614</v>
       </c>
       <c r="Q11">
-        <v>2.455349917182559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2823574479120197</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.427361990006489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.998808706553689</v>
+        <v>1.508258596314676</v>
       </c>
       <c r="C12">
-        <v>1.04164719867569</v>
+        <v>0.2032010660279582</v>
       </c>
       <c r="D12">
-        <v>0.06634448787927028</v>
+        <v>0.1187962192738183</v>
       </c>
       <c r="E12">
-        <v>0.7757246460136571</v>
+        <v>0.0452405401434417</v>
       </c>
       <c r="F12">
-        <v>0.8193973257164942</v>
+        <v>0.5642525984156279</v>
       </c>
       <c r="G12">
-        <v>0.0007732720225684575</v>
+        <v>0.3865397302928315</v>
       </c>
       <c r="H12">
-        <v>0.07933126607416341</v>
+        <v>0.06329356467579572</v>
       </c>
       <c r="I12">
-        <v>0.01876606120865443</v>
+        <v>0.006573467565470281</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2868493067915807</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3360372841466273</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04089309283869458</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07892917363354535</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.434554841418134</v>
       </c>
       <c r="P12">
-        <v>0.8018015336147926</v>
+        <v>0.1241143007247061</v>
       </c>
       <c r="Q12">
-        <v>2.230018738977265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2653307319753004</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.30868344705857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.856906087453297</v>
+        <v>1.495524263569024</v>
       </c>
       <c r="C13">
-        <v>0.9941221507705222</v>
+        <v>0.2141585817851137</v>
       </c>
       <c r="D13">
-        <v>0.07374033173330474</v>
+        <v>0.1060604874324724</v>
       </c>
       <c r="E13">
-        <v>0.3981850151505242</v>
+        <v>0.04029527567169477</v>
       </c>
       <c r="F13">
-        <v>0.7415224755416716</v>
+        <v>0.520194906556803</v>
       </c>
       <c r="G13">
-        <v>0.0007743164300377484</v>
+        <v>0.349392612661525</v>
       </c>
       <c r="H13">
-        <v>0.1320877733521399</v>
+        <v>0.1194453648860474</v>
       </c>
       <c r="I13">
-        <v>0.01762405812788259</v>
+        <v>0.006811906067955675</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2799001939970829</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.318059505415329</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04077870592103938</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08915444644373594</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.451629644347406</v>
       </c>
       <c r="P13">
-        <v>0.8516298066913066</v>
+        <v>0.09120214287887052</v>
       </c>
       <c r="Q13">
-        <v>1.974162583525896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2418126955261037</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.219300822122264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.705445098923747</v>
+        <v>1.465933401153848</v>
       </c>
       <c r="C14">
-        <v>0.9502030679651909</v>
+        <v>0.2213280983858112</v>
       </c>
       <c r="D14">
-        <v>0.07837039433519521</v>
+        <v>0.09610617054323711</v>
       </c>
       <c r="E14">
-        <v>0.2067866589870491</v>
+        <v>0.03838849755392737</v>
       </c>
       <c r="F14">
-        <v>0.6801878403898911</v>
+        <v>0.4930670391537788</v>
       </c>
       <c r="G14">
-        <v>0.0007754502749329242</v>
+        <v>0.3200037610849833</v>
       </c>
       <c r="H14">
-        <v>0.1794594729324785</v>
+        <v>0.1691487945386996</v>
       </c>
       <c r="I14">
-        <v>0.01645342251417592</v>
+        <v>0.007253233642167345</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2801848606626329</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3089356024439756</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04043047512220799</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09923668047677836</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.445549490078264</v>
       </c>
       <c r="P14">
-        <v>0.8871022934417567</v>
+        <v>0.07101375191651726</v>
       </c>
       <c r="Q14">
-        <v>1.782298678331358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2226201400712853</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.168516601266603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.642840219142954</v>
+        <v>1.44872434105875</v>
       </c>
       <c r="C15">
-        <v>0.9350401674155364</v>
+        <v>0.2228374147346557</v>
       </c>
       <c r="D15">
-        <v>0.07915881600541752</v>
+        <v>0.09316796787165771</v>
       </c>
       <c r="E15">
-        <v>0.1691515420980636</v>
+        <v>0.03813640790098871</v>
       </c>
       <c r="F15">
-        <v>0.6612674466339854</v>
+        <v>0.4873736257613217</v>
       </c>
       <c r="G15">
-        <v>0.0007759511119717162</v>
+        <v>0.3110761816631538</v>
       </c>
       <c r="H15">
-        <v>0.1913068405711869</v>
+        <v>0.1818360066755815</v>
       </c>
       <c r="I15">
-        <v>0.01602642478418481</v>
+        <v>0.007600888949349738</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2823616816026586</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3077437434171415</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04023626526702095</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1019006559979552</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.435660926567948</v>
       </c>
       <c r="P15">
-        <v>0.8957326648395139</v>
+        <v>0.06642005709576537</v>
       </c>
       <c r="Q15">
-        <v>1.726423683432074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2166178113687778</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.159636889901932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.415509897697746</v>
+        <v>1.357558401354538</v>
       </c>
       <c r="C16">
-        <v>0.8831420113135096</v>
+        <v>0.2158876150128748</v>
       </c>
       <c r="D16">
-        <v>0.0746227652443352</v>
+        <v>0.08811963884661367</v>
       </c>
       <c r="E16">
-        <v>0.1649757372158618</v>
+        <v>0.03826880274382216</v>
       </c>
       <c r="F16">
-        <v>0.6290727610731253</v>
+        <v>0.4981337256088381</v>
       </c>
       <c r="G16">
-        <v>0.000778154564283884</v>
+        <v>0.2990480875757129</v>
       </c>
       <c r="H16">
-        <v>0.1761469891596477</v>
+        <v>0.1701354290086101</v>
       </c>
       <c r="I16">
-        <v>0.01389576357840028</v>
+        <v>0.008713548569097895</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3043880304620252</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3183159617499101</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03941707583436216</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09872662176768898</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.350131844377273</v>
       </c>
       <c r="P16">
-        <v>0.8846610237793584</v>
+        <v>0.06517899153670825</v>
       </c>
       <c r="Q16">
-        <v>1.655776269964292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2038762522174586</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.198205988159145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.321024665012828</v>
+        <v>1.303579045552425</v>
       </c>
       <c r="C17">
-        <v>0.8665758524583111</v>
+        <v>0.2065091978168851</v>
       </c>
       <c r="D17">
-        <v>0.068686150943293</v>
+        <v>0.08959634496793711</v>
       </c>
       <c r="E17">
-        <v>0.2495924249046269</v>
+        <v>0.03909078419747836</v>
       </c>
       <c r="F17">
-        <v>0.6365869619460085</v>
+        <v>0.5202036121483928</v>
       </c>
       <c r="G17">
-        <v>0.0007792633737742622</v>
+        <v>0.3065282353965202</v>
       </c>
       <c r="H17">
-        <v>0.1374730480102357</v>
+        <v>0.1329832060084328</v>
       </c>
       <c r="I17">
-        <v>0.01290158642736738</v>
+        <v>0.009381864116446259</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.32156342157284</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3311671935116358</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03917787572528741</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0905224904337274</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.287774666719997</v>
       </c>
       <c r="P17">
-        <v>0.8577170160333907</v>
+        <v>0.0743669984209987</v>
       </c>
       <c r="Q17">
-        <v>1.70188707370113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2042035121611292</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.253566073016827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.333655881952268</v>
+        <v>1.276059600225381</v>
       </c>
       <c r="C18">
-        <v>0.8764144046545539</v>
+        <v>0.1940456026675008</v>
       </c>
       <c r="D18">
-        <v>0.06103533650605186</v>
+        <v>0.0966666112208614</v>
       </c>
       <c r="E18">
-        <v>0.4836990774361354</v>
+        <v>0.04194957176269565</v>
       </c>
       <c r="F18">
-        <v>0.6812400819957105</v>
+        <v>0.5580903218639719</v>
       </c>
       <c r="G18">
-        <v>0.000779451795486122</v>
+        <v>0.3287512030987116</v>
       </c>
       <c r="H18">
-        <v>0.08540656275748404</v>
+        <v>0.08031840283479852</v>
       </c>
       <c r="I18">
-        <v>0.0125143417278295</v>
+        <v>0.009292330812216143</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3395056711073963</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3496972389549278</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03913756153441361</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08000976720181185</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.237932112173127</v>
       </c>
       <c r="P18">
-        <v>0.8143454827812491</v>
+        <v>0.09607581606083926</v>
       </c>
       <c r="Q18">
-        <v>1.86245199742703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2159006960269849</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.338798842385685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.423425903977261</v>
+        <v>1.269561094350337</v>
       </c>
       <c r="C19">
-        <v>0.9129069093284556</v>
+        <v>0.1826412968325144</v>
       </c>
       <c r="D19">
-        <v>0.05334773736532838</v>
+        <v>0.1081129708808675</v>
       </c>
       <c r="E19">
-        <v>0.9192880719533036</v>
+        <v>0.04817599078715773</v>
       </c>
       <c r="F19">
-        <v>0.7509527051255276</v>
+        <v>0.6062819580098306</v>
       </c>
       <c r="G19">
-        <v>0.0007787894674839167</v>
+        <v>0.3596232594004718</v>
       </c>
       <c r="H19">
-        <v>0.04300193645821793</v>
+        <v>0.03462189391940029</v>
       </c>
       <c r="I19">
-        <v>0.01316157143171637</v>
+        <v>0.009284156975325253</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3577626979145876</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3719265035220545</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03914066407849726</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07298177605619216</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.204570514332602</v>
       </c>
       <c r="P19">
-        <v>0.7672507512976097</v>
+        <v>0.1310853725187187</v>
       </c>
       <c r="Q19">
-        <v>2.100504158686675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2364084243666973</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.442198159042363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.744961384763428</v>
+        <v>1.325962076819565</v>
       </c>
       <c r="C20">
-        <v>1.014395815254744</v>
+        <v>0.1712316093934305</v>
       </c>
       <c r="D20">
-        <v>0.04493882850729136</v>
+        <v>0.1313141397799313</v>
       </c>
       <c r="E20">
-        <v>1.900556197826361</v>
+        <v>0.0634073549735632</v>
       </c>
       <c r="F20">
-        <v>0.8957133485068596</v>
+        <v>0.6848554511789047</v>
       </c>
       <c r="G20">
-        <v>0.0007757310825716802</v>
+        <v>0.4181347380871472</v>
       </c>
       <c r="H20">
-        <v>0.02618642432198026</v>
+        <v>0.006421505628800173</v>
       </c>
       <c r="I20">
-        <v>0.01606431092290084</v>
+        <v>0.008234414812744895</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3750326199440508</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4051999485217124</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03919328322222526</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.07443065132606375</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.214048622123471</v>
       </c>
       <c r="P20">
-        <v>0.7024029010301973</v>
+        <v>0.2008168761008449</v>
       </c>
       <c r="Q20">
-        <v>2.571054206805428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2809721965084222</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.600431444460185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.234385973037206</v>
+        <v>1.493449404342073</v>
       </c>
       <c r="C21">
-        <v>1.13884384872128</v>
+        <v>0.1776757398296951</v>
       </c>
       <c r="D21">
-        <v>0.04853039978854667</v>
+        <v>0.1494269015331042</v>
       </c>
       <c r="E21">
-        <v>2.232452845818756</v>
+        <v>0.06797706663339476</v>
       </c>
       <c r="F21">
-        <v>1.002870546799215</v>
+        <v>0.6874373398708542</v>
       </c>
       <c r="G21">
-        <v>0.0007711437311507585</v>
+        <v>0.4796757356871097</v>
       </c>
       <c r="H21">
-        <v>0.03398707486947439</v>
+        <v>0.004368588162355691</v>
       </c>
       <c r="I21">
-        <v>0.02118666147670556</v>
+        <v>0.006488862515565685</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.31623878203186</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3937329310806987</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.04052878297815088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.07625458357142012</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.353845570390064</v>
       </c>
       <c r="P21">
-        <v>0.691096490122753</v>
+        <v>0.2271281611444778</v>
       </c>
       <c r="Q21">
-        <v>2.862923816794051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3186592606681273</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.569688837957798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.551661220263384</v>
+        <v>1.603978237693269</v>
       </c>
       <c r="C22">
-        <v>1.213745153735829</v>
+        <v>0.1816622091915008</v>
       </c>
       <c r="D22">
-        <v>0.05114237283794409</v>
+        <v>0.1605748156658677</v>
       </c>
       <c r="E22">
-        <v>2.398415709812426</v>
+        <v>0.0702501900064707</v>
       </c>
       <c r="F22">
-        <v>1.070752524721385</v>
+        <v>0.6862178663598399</v>
       </c>
       <c r="G22">
-        <v>0.000768271936691179</v>
+        <v>0.5269766775716249</v>
       </c>
       <c r="H22">
-        <v>0.03907437156944749</v>
+        <v>0.003368973625225258</v>
       </c>
       <c r="I22">
-        <v>0.02456729336757402</v>
+        <v>0.005161354932312179</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2841333099072116</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3852740073169443</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.04225741429945806</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.07711962218641144</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.445285304249069</v>
       </c>
       <c r="P22">
-        <v>0.6855652115969377</v>
+        <v>0.2404125718592525</v>
       </c>
       <c r="Q22">
-        <v>3.045853247365073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3415577051315921</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.543914163041052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.388043389984887</v>
+        <v>1.546093549655069</v>
       </c>
       <c r="C23">
-        <v>1.170230267484214</v>
+        <v>0.1789631077141252</v>
       </c>
       <c r="D23">
-        <v>0.04958402825251795</v>
+        <v>0.1540926772338054</v>
       </c>
       <c r="E23">
-        <v>2.309816508383619</v>
+        <v>0.06909287676263887</v>
       </c>
       <c r="F23">
-        <v>1.03681460987049</v>
+        <v>0.6905983365558654</v>
       </c>
       <c r="G23">
-        <v>0.0007697827481974752</v>
+        <v>0.4964905382457374</v>
       </c>
       <c r="H23">
-        <v>0.03633694744138571</v>
+        <v>0.003871686322666046</v>
       </c>
       <c r="I23">
-        <v>0.02250664103468569</v>
+        <v>0.00543863440143344</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3056957873131836</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3919917112719418</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.04125700356327755</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07678387155270361</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.395533948058727</v>
       </c>
       <c r="P23">
-        <v>0.6867202211229895</v>
+        <v>0.2327327581786136</v>
       </c>
       <c r="Q23">
-        <v>2.95620379021554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3292083726267521</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.567747188397647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.759689213248521</v>
+        <v>1.32577735544487</v>
       </c>
       <c r="C24">
-        <v>1.012181686639536</v>
+        <v>0.1689455778301081</v>
       </c>
       <c r="D24">
-        <v>0.04394261903344443</v>
+        <v>0.1323592398038187</v>
       </c>
       <c r="E24">
-        <v>1.976461631646146</v>
+        <v>0.06480089638622388</v>
       </c>
       <c r="F24">
-        <v>0.9067763043870798</v>
+        <v>0.6934205287156843</v>
       </c>
       <c r="G24">
-        <v>0.0007756338485891714</v>
+        <v>0.4239364821246241</v>
       </c>
       <c r="H24">
-        <v>0.02669420700939273</v>
+        <v>0.006198453681387606</v>
       </c>
       <c r="I24">
-        <v>0.01574906392351672</v>
+        <v>0.007565987926709816</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3787499198475004</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4101389304186611</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03918601460529203</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07512360869355383</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.2072584339206</v>
       </c>
       <c r="P24">
-        <v>0.6955573263841259</v>
+        <v>0.2048677698763584</v>
       </c>
       <c r="Q24">
-        <v>2.610298883614547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.282892153029124</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.620530251559956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.082796153344248</v>
+        <v>1.089818007563622</v>
       </c>
       <c r="C25">
-        <v>0.8434117984034515</v>
+        <v>0.1558814779894959</v>
       </c>
       <c r="D25">
-        <v>0.03782965901152835</v>
+        <v>0.1134966718783659</v>
       </c>
       <c r="E25">
-        <v>1.620805740526038</v>
+        <v>0.06052587673890208</v>
       </c>
       <c r="F25">
-        <v>0.7709755821200588</v>
+        <v>0.6757119883485032</v>
       </c>
       <c r="G25">
-        <v>0.000782176244044853</v>
+        <v>0.4139074579518791</v>
       </c>
       <c r="H25">
-        <v>0.01766107065060085</v>
+        <v>0.009606920505398776</v>
       </c>
       <c r="I25">
-        <v>0.009773803154761396</v>
+        <v>0.01085226229462322</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3860436097597812</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4191427685926925</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04067702969877529</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07274374692678709</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.000209267131083</v>
       </c>
       <c r="P25">
-        <v>0.7082226143536374</v>
+        <v>0.1753411817459494</v>
       </c>
       <c r="Q25">
-        <v>2.250509085723536</v>
+        <v>0.2335016444231428</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.618968701256648</v>
       </c>
     </row>
   </sheetData>
